--- a/docentes/Villanueva Morales Luis Arturo Estadisticos 2020.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo Estadisticos 2020.xlsx
@@ -1306,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1329,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1352,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1375,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1398,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1467,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1490,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1513,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1536,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1559,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1582,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1605,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1628,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1674,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1697,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1720,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1743,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1766,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1789,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1812,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1835,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1858,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1881,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1904,7 +1904,7 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1927,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1950,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1973,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
